--- a/Cliente Solar Análise.xlsx
+++ b/Cliente Solar Análise.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8fc015c659b534d1/Workplace/Portfólio Análise de dados/Excel-Analise_de_expansao_solar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="329" documentId="8_{3A67DC9C-4C51-466A-AA1B-27A9AAD673B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E743363-877C-48B6-8D19-4377F563D8B9}"/>
+  <xr:revisionPtr revIDLastSave="330" documentId="8_{3A67DC9C-4C51-466A-AA1B-27A9AAD673B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4BB3B184-050A-4C67-B57C-4654134CF5CD}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{E283EC9B-F660-469F-A706-101104E76017}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{E283EC9B-F660-469F-A706-101104E76017}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumo_Monitoramento" sheetId="10" r:id="rId1"/>
     <sheet name="Análise" sheetId="13" r:id="rId2"/>
-    <sheet name="dados" sheetId="12" r:id="rId3"/>
+    <sheet name="dados" sheetId="12" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="B_Vermelha">dados!$B$3</definedName>
@@ -5731,7 +5731,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB52DBFC-5240-40D6-AACD-CCEDA1E6D71D}">
   <dimension ref="A1:D319"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E15" sqref="E15:E16"/>
     </sheetView>
   </sheetViews>
@@ -10222,7 +10222,7 @@
   </sheetPr>
   <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <selection activeCell="Y13" sqref="Y13"/>
     </sheetView>
   </sheetViews>

--- a/Cliente Solar Análise.xlsx
+++ b/Cliente Solar Análise.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="330" documentId="8_{3A67DC9C-4C51-466A-AA1B-27A9AAD673B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4BB3B184-050A-4C67-B57C-4654134CF5CD}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{E283EC9B-F660-469F-A706-101104E76017}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{E283EC9B-F660-469F-A706-101104E76017}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumo_Monitoramento" sheetId="10" r:id="rId1"/>
@@ -5408,10 +5408,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5731,7 +5727,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB52DBFC-5240-40D6-AACD-CCEDA1E6D71D}">
   <dimension ref="A1:D319"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E15" sqref="E15:E16"/>
     </sheetView>
   </sheetViews>
@@ -10222,8 +10218,8 @@
   </sheetPr>
   <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="Y13" sqref="Y13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Cliente Solar Análise.xlsx
+++ b/Cliente Solar Análise.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8fc015c659b534d1/Workplace/Portfólio Análise de dados/Excel-Analise_de_expansao_solar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="330" documentId="8_{3A67DC9C-4C51-466A-AA1B-27A9AAD673B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4BB3B184-050A-4C67-B57C-4654134CF5CD}"/>
+  <xr:revisionPtr revIDLastSave="334" documentId="8_{3A67DC9C-4C51-466A-AA1B-27A9AAD673B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B6392F5F-4795-4833-A440-2AE1CB5A1416}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{E283EC9B-F660-469F-A706-101104E76017}"/>
   </bookViews>
@@ -5189,8 +5189,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14791765" y="5793441"/>
-          <a:ext cx="5860676" cy="1994647"/>
+          <a:off x="11844618" y="7205382"/>
+          <a:ext cx="4628029" cy="1994647"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5406,6 +5406,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10219,7 +10223,7 @@
   <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="V12" sqref="V12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
